--- a/API_6/test_cases/test_api.xlsx
+++ b/API_6/test_cases/test_api.xlsx
@@ -229,7 +229,7 @@
     <t>{'status':1,'code':'10001','data':{'id':1123563,'regname':'小蜜蜂','pwd':'E10ADC3949BA59ABBE56E057F20F883E','mobilephone':'15910298856','leaveamount':'excepted_amount','type':'1','regtime':'2019-03-11 15:02:04.0'},'msg':'充值成功'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123563,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15910298856","leaveamount":"3602199.93","type":"1","regtime":"2019-03-11 15:02:04.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1123563,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15910298856","leaveamount":"3602099.93","type":"1","regtime":"2019-03-11 15:02:04.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>充值不输入手机号</t>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>15910200104</v>
+        <v>15910200105</v>
       </c>
     </row>
   </sheetData>

--- a/API_6/test_cases/test_api.xlsx
+++ b/API_6/test_cases/test_api.xlsx
@@ -229,7 +229,7 @@
     <t>{'status':1,'code':'10001','data':{'id':1123563,'regname':'小蜜蜂','pwd':'E10ADC3949BA59ABBE56E057F20F883E','mobilephone':'15910298856','leaveamount':'excepted_amount','type':'1','regtime':'2019-03-11 15:02:04.0'},'msg':'充值成功'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123563,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15910298856","leaveamount":"3602099.93","type":"1","regtime":"2019-03-11 15:02:04.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1123563,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15910298856","leaveamount":"3601899.93","type":"1","regtime":"2019-03-11 15:02:04.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>充值不输入手机号</t>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>15910200105</v>
+        <v>15910200107</v>
       </c>
     </row>
   </sheetData>
